--- a/BugRep_Skyscout.xlsx
+++ b/BugRep_Skyscout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D5269-CCB8-42B6-BBB4-08B8BE813A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958CA615-C4B3-4E67-9E2E-9CF244933B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,6 @@
 "По данному запросу ничего не найдено"</t>
   </si>
   <si>
-    <t>Поискововая строка
- возвращает пустое поле</t>
-  </si>
-  <si>
     <t> Тривиальный</t>
   </si>
   <si>
@@ -115,10 +111,6 @@
     <t>Тестирование мобильного приложения SkyScout</t>
   </si>
   <si>
-    <t>Если культура имеет длинное название/описание, 
-оно выходит за рамки блока описания поля. Присутсвует горизонтальный скроллинг.</t>
-  </si>
-  <si>
     <t>https://ibb.co/4FWvcqY</t>
   </si>
   <si>
@@ -169,33 +161,11 @@
     <t>Сообщение об ошибке ввода  появляется при добавлении последующих новых пораженных органов при условии что ввод данных не был произведён</t>
   </si>
   <si>
-    <t xml:space="preserve"> отсутствие каких либо сообщений об ошибках</t>
-  </si>
-  <si>
     <t>Ошибка ввода данных, 
 хотя ввод не был произведен</t>
   </si>
   <si>
-    <t>Бесконечная загрузка просмотра фотографий, сделанных на переднюю/фронтальную камеру</t>
-  </si>
-  <si>
     <t>Не прогружается просмотр фотографий, сделанных на переднюю/фронтальную камеру</t>
-  </si>
-  <si>
-    <t>Предусловие:
-Открыть форму Новый отчет
-Шаги:
-1. Кликнуть добавить фото
-2. Выбрать камера
-3. Сделать фото
-4. Кликнуть просмотр фотографии</t>
-  </si>
-  <si>
-    <t>просмотр фото прогрузился за доли секунды</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> бесконечная загрузка 
-просмотра фото</t>
   </si>
   <si>
     <t>Критический</t>
@@ -215,10 +185,6 @@
   </si>
   <si>
     <t>https://ibb.co/t8CgPhh</t>
-  </si>
-  <si>
-    <t>Цвет шрифта активных плейсхолдеров серый,
- заблокированных - белый</t>
   </si>
   <si>
     <t>По умолчанию плейсхолдеры Культуры
@@ -245,28 +211,11 @@
 Версия: 2.26.0.0026</t>
   </si>
   <si>
-    <t>Предусловие:
-Перейти в форму Новый отчёт
-Шаги
-1.Кликнуть плейсхолдер Поле
-2.Перейти в блок Фильтры</t>
-  </si>
-  <si>
-    <t>Нет сообщения, сигнализирующее об безуспешном выполнении поискогого запроса, в блоке добавления проблем</t>
-  </si>
-  <si>
-    <t>После тапа "Вернуть в исходное положение"
-кнопка "Добавить точку" недоступна в блоке добавление точки на карту</t>
-  </si>
-  <si>
     <t>Если отвести маркер от стартовой позиции и тапнуть
 Вернуть кнопка Добавить точку становится неактивной</t>
   </si>
   <si>
     <t>Кнопка Добавить точку активна. Можно добавить точку на карту</t>
-  </si>
-  <si>
-    <t>Кнопка Добавить точку неактивна.</t>
   </si>
   <si>
     <t>Не обновляется текст плейсхолдера Сорт 
@@ -298,13 +247,6 @@
     <t>Отсутствует отступ слева в форме выбора поражённого органа при условии, что все возможные из представленных органов уже выбраны пользователем ранее</t>
   </si>
   <si>
-    <t>Сообщение По данному запросу ничего не найдено имеет отступ слева</t>
-  </si>
-  <si>
-    <t>Сообщение По данному запросу ничего не найдено 
-не имеет отступ слева</t>
-  </si>
-  <si>
     <t>Повторная проверка валидации полей с выводом сообщения об ошибке еще до фокусировки в поле в форме заполнения данных о болезни</t>
   </si>
   <si>
@@ -316,11 +258,68 @@
 3. Произвести корректный ввод данных</t>
   </si>
   <si>
+    <t>Нет сообщения, сигнализирующее о безуспешном выполнении поискогого запроса, в блоке добавления проблем</t>
+  </si>
+  <si>
+    <t>Поисковая строка
+ возвращает пустое поле</t>
+  </si>
+  <si>
+    <t>После тапа кнопки  "Вернуть в исходное положение" кнопка "Добавить точку" становится недоступна в блоке добавление точки на карту</t>
+  </si>
+  <si>
+    <t>Кнопка Добавить точку неактивна. Нельзя добавить точку на карту</t>
+  </si>
+  <si>
+    <t>Если культура имеет длинное название, 
+оно выходит за рамки блока описания поля. Присутсвует горизонтальный скроллинг.</t>
+  </si>
+  <si>
+    <t>Сообщение По данному запросу ничего не найдено имеет отступа слева</t>
+  </si>
+  <si>
+    <t>Сообщение По данному запросу ничего не найдено 
+не имеет отступа слева</t>
+  </si>
+  <si>
+    <t>Бесконечная загрузка просмотра фотографий, сделанных на переднюю/фронтальную камеру в блоке создания нового отчета</t>
+  </si>
+  <si>
+    <t>Цвет шрифта активных плейсхолдеров серый,
+ заблокированных - белый в блоке фильтров по поиск полей</t>
+  </si>
+  <si>
+    <t>Предусловие:
+Открыть форму Новый отчет
+Шаги:
+1. Тапнуть добавить фото
+2. Выбрать камера
+3. Сделать фото
+4. Тапнуть просмотр фотографии</t>
+  </si>
+  <si>
     <t>Предусловие:
 Перейти в форму Новый отчет. Хозяйство - Череповец хомячковый. Поле - К. Беляева
 Шаги
-1.Кликнуть фенофаза
+1.Тапнуть фенофаза
 2.В строке поиска ввести 6</t>
+  </si>
+  <si>
+    <t>Предусловие:
+Перейти в форму Новый отчёт
+Шаги
+1.Тапнуть плейсхолдер Поле
+2.Перейти в блок Фильтры</t>
+  </si>
+  <si>
+    <t>Просмотр фото прогрузился меньше чем за секунду</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Бесконечная загрузка 
+</t>
+  </si>
+  <si>
+    <t>Отсутствие каких либо сообщений об ошибках</t>
   </si>
 </sst>
 </file>
@@ -418,7 +417,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -703,7 +704,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,9 +722,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -762,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -774,19 +776,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="120" x14ac:dyDescent="0.25">
@@ -794,63 +796,63 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -858,31 +860,31 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -890,31 +892,31 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -922,31 +924,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -954,31 +956,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -986,31 +988,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.25">
@@ -1018,31 +1020,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
@@ -1050,34 +1052,37 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="I14" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="I7" r:id="rId1" xr:uid="{008111AC-C28F-495D-B427-3BCD8031B904}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{D6B1DD2C-68FE-45BD-B03E-9E44DEB18E27}"/>
